--- a/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
+++ b/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcduffie/Documents/GEOS-Chem/CEDS_Emissions/CEDS_v0611/input/mappings/scaling/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B3B597-C402-7E40-A326-910F9990463A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="11720" yWindow="8800" windowWidth="25600" windowHeight="13940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
     <sheet name="method" sheetId="2" r:id="rId2"/>
     <sheet name="year" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,293 +27,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="242">
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>industrial processes</t>
-  </si>
-  <si>
-    <t>1.A</t>
-  </si>
-  <si>
     <t>fuel combustion</t>
   </si>
   <si>
-    <t>1.A.1</t>
-  </si>
-  <si>
-    <t>energy indistries</t>
-  </si>
-  <si>
-    <t>1.A.4</t>
-  </si>
-  <si>
     <t>Other Sectors</t>
   </si>
   <si>
-    <t>1.A.5</t>
-  </si>
-  <si>
     <t>Non Specified</t>
   </si>
   <si>
-    <t>1.AA.1.A</t>
-  </si>
-  <si>
     <t>main activity electric and heat</t>
   </si>
   <si>
-    <t>1.AA.1.B</t>
-  </si>
-  <si>
     <t>petroleum refining</t>
   </si>
   <si>
-    <t>1.AA.1.C</t>
-  </si>
-  <si>
     <t>manufacture of solid fuels and other energy industries</t>
   </si>
   <si>
-    <t>1.AA.2.A</t>
-  </si>
-  <si>
-    <t>iron and steal</t>
-  </si>
-  <si>
-    <t>1.AA.2.B</t>
-  </si>
-  <si>
     <t>non ferrous metal</t>
   </si>
   <si>
-    <t>1.AA.2.D</t>
-  </si>
-  <si>
     <t>pulp paper and print</t>
   </si>
   <si>
-    <t>1.AA.2.E</t>
-  </si>
-  <si>
     <t>food processing</t>
   </si>
   <si>
-    <t>1.AA.2.F</t>
-  </si>
-  <si>
     <t>non metallic minerals</t>
   </si>
   <si>
-    <t>1.AA.3.A</t>
-  </si>
-  <si>
     <t>civil aviation</t>
   </si>
   <si>
-    <t>1.AA.3.B</t>
-  </si>
-  <si>
     <t>road transportation</t>
   </si>
   <si>
-    <t>1.AA.3.C</t>
-  </si>
-  <si>
     <t>railways</t>
   </si>
   <si>
-    <t>1.AA.3.D</t>
-  </si>
-  <si>
     <t>waterbourne navigation</t>
   </si>
   <si>
-    <t>1.AA.3.E</t>
-  </si>
-  <si>
     <t>other transportation</t>
   </si>
   <si>
-    <t>1.AA.4.A</t>
-  </si>
-  <si>
     <t>comercial_institutional</t>
   </si>
   <si>
-    <t>1.AA.4.B</t>
-  </si>
-  <si>
     <t>residential</t>
   </si>
   <si>
-    <t>1.AA.4.C</t>
-  </si>
-  <si>
     <t>agriculture/forestry</t>
   </si>
   <si>
-    <t>1.AA.5.B</t>
-  </si>
-  <si>
     <t>mobile</t>
   </si>
   <si>
-    <t>1.B</t>
-  </si>
-  <si>
     <t>Fugitive Emissions from Fuels</t>
   </si>
   <si>
-    <t>1.B.1.A</t>
-  </si>
-  <si>
     <t>coal mining and handling</t>
   </si>
   <si>
-    <t>1.B.1.B</t>
-  </si>
-  <si>
-    <t>uncontrolled combustion and burning coal dumps</t>
-  </si>
-  <si>
-    <t>1.B.1.C</t>
-  </si>
-  <si>
     <t>solid fuel transformation</t>
   </si>
   <si>
-    <t>1.B.2</t>
-  </si>
-  <si>
     <t>oil and nat gas</t>
   </si>
   <si>
-    <t>1.B.2.A</t>
-  </si>
-  <si>
     <t>fugitive emissions - oil</t>
   </si>
   <si>
-    <t>1.B.2.B</t>
-  </si>
-  <si>
     <t>fugitive emissions - natural gas</t>
   </si>
   <si>
-    <t>1.B.2.C</t>
-  </si>
-  <si>
     <t>venting and flaring</t>
   </si>
   <si>
-    <t>1.B.2.C.1</t>
-  </si>
-  <si>
-    <t>1.B.2.C.2</t>
-  </si>
-  <si>
-    <t>1.B.2.D</t>
-  </si>
-  <si>
     <t>other fugitive</t>
   </si>
   <si>
-    <t>2.A.1</t>
-  </si>
-  <si>
     <t>Cement</t>
   </si>
   <si>
-    <t>2.A.6</t>
-  </si>
-  <si>
-    <t>road paving asphalt</t>
-  </si>
-  <si>
-    <t>2.A.7</t>
-  </si>
-  <si>
-    <t>quarrying and mining not coal</t>
-  </si>
-  <si>
-    <t>2.B.1</t>
-  </si>
-  <si>
     <t>ammonia production</t>
   </si>
   <si>
-    <t>2.B.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Caprolactam, Glyoxal and Glyoxylic Acid </t>
   </si>
   <si>
-    <t>2.B.5</t>
-  </si>
-  <si>
     <t>carbide production</t>
   </si>
   <si>
-    <t>2.C</t>
-  </si>
-  <si>
     <t>metal industry</t>
   </si>
   <si>
-    <t>2.C.1</t>
-  </si>
-  <si>
-    <t>2.C.2</t>
-  </si>
-  <si>
-    <t>2.C.3</t>
-  </si>
-  <si>
-    <t>2.C.5</t>
-  </si>
-  <si>
-    <t>2.D</t>
-  </si>
-  <si>
     <t>non energy products from fuels and solvent</t>
   </si>
   <si>
-    <t>2.G</t>
-  </si>
-  <si>
     <t>other product manufacturing</t>
   </si>
   <si>
-    <t>4.D</t>
-  </si>
-  <si>
-    <t>wastewater treatment and discharge</t>
-  </si>
-  <si>
-    <t>6.C</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
-    <t>6.D</t>
-  </si>
-  <si>
-    <t>Aviation</t>
-  </si>
-  <si>
     <t>International Bunkers</t>
   </si>
   <si>
-    <t>Marine</t>
-  </si>
-  <si>
     <t>Memo Items</t>
   </si>
   <si>
@@ -446,12 +278,6 @@
     <t>1B2d_Fugitive-other-energy</t>
   </si>
   <si>
-    <t>2D_Degreasing-Cleaning</t>
-  </si>
-  <si>
-    <t>2D_Paint-application</t>
-  </si>
-  <si>
     <t>3B_Manure-management</t>
   </si>
   <si>
@@ -500,9 +326,6 @@
     <t>11C_Other-natural</t>
   </si>
   <si>
-    <t>1.A.2</t>
-  </si>
-  <si>
     <t>Industry Combustion</t>
   </si>
   <si>
@@ -515,9 +338,6 @@
     <t>RCO</t>
   </si>
   <si>
-    <t>Not in CEDS</t>
-  </si>
-  <si>
     <t>select_scaling_year</t>
   </si>
   <si>
@@ -545,15 +365,6 @@
     <t>post_ext_method</t>
   </si>
   <si>
-    <t>2.D.1</t>
-  </si>
-  <si>
-    <t>2.D.2</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Aluminium Production</t>
   </si>
   <si>
@@ -563,48 +374,9 @@
     <t>Iron and Steel Production</t>
   </si>
   <si>
-    <t>Pulp and Paper</t>
-  </si>
-  <si>
-    <t>Food and Drink</t>
-  </si>
-  <si>
     <t>Wastewater-handling</t>
   </si>
   <si>
-    <t>3 Solvent and Other Product Use</t>
-  </si>
-  <si>
-    <t>3.A Paint Application</t>
-  </si>
-  <si>
-    <t>3.B Degreasing and Dry Cleaning</t>
-  </si>
-  <si>
-    <t>3.C Chemical Products, Manufacture and Processing</t>
-  </si>
-  <si>
-    <t>3.D.5 Other</t>
-  </si>
-  <si>
-    <t>3.A</t>
-  </si>
-  <si>
-    <t>3.B</t>
-  </si>
-  <si>
-    <t>3.C</t>
-  </si>
-  <si>
-    <t>3.D.5</t>
-  </si>
-  <si>
-    <t>Degreasing-Cleaning</t>
-  </si>
-  <si>
-    <t>Paint-application</t>
-  </si>
-  <si>
     <t>Chemical-products</t>
   </si>
   <si>
@@ -617,19 +389,376 @@
     <t>1A3dii_Domestic-navigation</t>
   </si>
   <si>
-    <t>6.C.2</t>
-  </si>
-  <si>
     <t>Waste-incineration</t>
   </si>
   <si>
-    <t>Waste incineration - Other (non-biogenic)</t>
+    <t>2.  Industrial Processes and Product Use</t>
+  </si>
+  <si>
+    <t>1.AA  Fuel Combustion - Sectoral approach</t>
+  </si>
+  <si>
+    <t>1.A.1  Energy Industries</t>
+  </si>
+  <si>
+    <t>1.A.1.a  Public Electricity and Heat Production</t>
+  </si>
+  <si>
+    <t>1.A.1.b  Petroleum Refining</t>
+  </si>
+  <si>
+    <t>1.A.1.c  Manufacture of Solid Fuels and Other Energy Industries</t>
+  </si>
+  <si>
+    <t>1.A.2  Manufacturing Industries and Construction</t>
+  </si>
+  <si>
+    <t>1.A.4  Other Sectors</t>
+  </si>
+  <si>
+    <t>1.A.5  Other (Not specified elsewhere)</t>
+  </si>
+  <si>
+    <t>1.A.2.a  Iron and Steel</t>
+  </si>
+  <si>
+    <t>iron and steel</t>
+  </si>
+  <si>
+    <t>1.A.2.b  Non-Ferrous Metals</t>
+  </si>
+  <si>
+    <t>1.A.2.d  Pulp, Paper and Print</t>
+  </si>
+  <si>
+    <t>1.A.2.c  Chemicals</t>
+  </si>
+  <si>
+    <t>chemical</t>
+  </si>
+  <si>
+    <t>1.A.2.e  Food Processing, Beverages and Tobacco</t>
+  </si>
+  <si>
+    <t>1.A.2.f  Non-metallic Minerals</t>
+  </si>
+  <si>
+    <t>1.A.2.g  Other</t>
+  </si>
+  <si>
+    <t>other industry comb</t>
+  </si>
+  <si>
+    <t>energy industries</t>
+  </si>
+  <si>
+    <t>1.A.3  Transport</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>1.A.3.a  Domestic Aviation</t>
+  </si>
+  <si>
+    <t>1.A.3.b  Road Transportation</t>
+  </si>
+  <si>
+    <t>1.A.3.c  Railways</t>
+  </si>
+  <si>
+    <t>1.A.3.d  Domestic Navigation</t>
+  </si>
+  <si>
+    <t>1.A.3.e  Other Transportation</t>
+  </si>
+  <si>
+    <t>1.A.4.a  Commercial/Institutional</t>
+  </si>
+  <si>
+    <t>1.A.4.b  Residential</t>
+  </si>
+  <si>
+    <t>1.A.4.c  Agriculture/Forestry/Fishing</t>
+  </si>
+  <si>
+    <t>1.A.5.a  Stationary</t>
+  </si>
+  <si>
+    <t>stationary</t>
+  </si>
+  <si>
+    <t>1.A.5.b  Mobile</t>
+  </si>
+  <si>
+    <t>1.B  Fugitive Emissions from Fuels</t>
+  </si>
+  <si>
+    <t>1.B.1  Solid Fuels</t>
+  </si>
+  <si>
+    <t>solid fuels</t>
+  </si>
+  <si>
+    <t>1.B.1.a  Coal Mining and Handling</t>
+  </si>
+  <si>
+    <t>1.B.1.b  Solid Fuel Transformation</t>
+  </si>
+  <si>
+    <t>1.B.1.c  Other</t>
+  </si>
+  <si>
+    <t>1.B.2  Oil and Natural Gas and Other Emissions from Energy Production</t>
+  </si>
+  <si>
+    <t>1.B.2.a  Oil</t>
+  </si>
+  <si>
+    <t>1.B.2.c  Venting and Flaring</t>
+  </si>
+  <si>
+    <t>1.B.2.d  Other</t>
+  </si>
+  <si>
+    <t>2.A  Mineral Industry</t>
+  </si>
+  <si>
+    <t>1.B.2.b  Natural Gas</t>
+  </si>
+  <si>
+    <t>2.A.1  Cement Production</t>
+  </si>
+  <si>
+    <t>2.A.4  Other Process Uses of Carbonates</t>
+  </si>
+  <si>
+    <t>2.A.4.a  Ceramics</t>
+  </si>
+  <si>
+    <t>2.A.4.b  Other Uses of Soda Ash</t>
+  </si>
+  <si>
+    <t>2.A.4.c  Non-metallurgical Magnesium Production</t>
+  </si>
+  <si>
+    <t>2.A.4.d  Other</t>
+  </si>
+  <si>
+    <t>2.B  Chemical Industry</t>
+  </si>
+  <si>
+    <t>2.B.1  Ammonia Production</t>
+  </si>
+  <si>
+    <t>2.B.2  Nitric Acid Production</t>
+  </si>
+  <si>
+    <t>2.B.3  Adipic Acid Production</t>
+  </si>
+  <si>
+    <t>2.B.5  Carbide Production</t>
+  </si>
+  <si>
+    <t>2.B.8  Petrochemical and Carbon Black Production</t>
+  </si>
+  <si>
+    <t>2.B.10  Other</t>
+  </si>
+  <si>
+    <t>2.B.4  Caprolactam, Glyoxal and Glyoxylic Acid Production</t>
+  </si>
+  <si>
+    <t>nitric acid</t>
+  </si>
+  <si>
+    <t>adipic acid</t>
+  </si>
+  <si>
+    <t>2.C  Metal Industry</t>
+  </si>
+  <si>
+    <t>2.C.1  Iron and Steel Production</t>
+  </si>
+  <si>
+    <t>2.C.2  Ferroalloys Production</t>
+  </si>
+  <si>
+    <t>2.C.3  Aluminium Production</t>
+  </si>
+  <si>
+    <t>2.C.4  Magnesium Production</t>
+  </si>
+  <si>
+    <t>2.C.5  Lead Production</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>2.C.6  Zinc Production</t>
+  </si>
+  <si>
+    <t>zinc</t>
+  </si>
+  <si>
+    <t>2.C.7  Other</t>
+  </si>
+  <si>
+    <t>2.D  Non-energy Products from Fuels and Solvent Use</t>
+  </si>
+  <si>
+    <t>2.D.1  Lubricant Use</t>
+  </si>
+  <si>
+    <t>2.D.2  Paraffin Wax Use</t>
+  </si>
+  <si>
+    <t>2.D.3  Other</t>
+  </si>
+  <si>
+    <t>2.G  Other Product Manufacture and Use</t>
+  </si>
+  <si>
+    <t>2.G.4  Other</t>
+  </si>
+  <si>
+    <t>3.  Agriculture</t>
+  </si>
+  <si>
+    <t>2.D.3.a  Solvent Use</t>
+  </si>
+  <si>
+    <t>2.D.3.b  Road Paving with Asphalt</t>
+  </si>
+  <si>
+    <t>2.D.3.c  Asphalt Roofing</t>
+  </si>
+  <si>
+    <t>2.D.3.d  Other</t>
+  </si>
+  <si>
+    <t>2.H  Other</t>
+  </si>
+  <si>
+    <t>2.H.1  Pulp and Paper</t>
+  </si>
+  <si>
+    <t>2.H.2  Food and Beverages Industry</t>
+  </si>
+  <si>
+    <t>pulp and paper</t>
+  </si>
+  <si>
+    <t>food and beverage</t>
+  </si>
+  <si>
+    <t>Other industries and product use</t>
+  </si>
+  <si>
+    <t>Pulp-and-paper-food-beverage-wood</t>
+  </si>
+  <si>
+    <t>3.D  Agricultural Soils</t>
+  </si>
+  <si>
+    <t>3.E  Prescribed Burning of Savannas</t>
+  </si>
+  <si>
+    <t>agr-soil</t>
+  </si>
+  <si>
+    <t>3.F  Field Burning of Agricultural Residues</t>
+  </si>
+  <si>
+    <t>4.  Land Use, Land-Use Change and Forestry</t>
+  </si>
+  <si>
+    <t>not mapped to CEDS</t>
+  </si>
+  <si>
+    <t>5.  Waste</t>
+  </si>
+  <si>
+    <t>5.A  Solid Waste Disposal</t>
+  </si>
+  <si>
+    <t>solid_waste</t>
+  </si>
+  <si>
+    <t>5.A.1  Managed Waste Disposal Sites</t>
+  </si>
+  <si>
+    <t>5.A.2  Unmanaged Waste Disposal Sites</t>
+  </si>
+  <si>
+    <t>5.A.3  Uncategorized Waste Disposal Sites</t>
+  </si>
+  <si>
+    <t>5.B  Biological Treatment of Solid Waste</t>
+  </si>
+  <si>
+    <t>5.C  Incineration and Open Burning of Waste</t>
+  </si>
+  <si>
+    <t>5.C.1  Waste Incineration</t>
+  </si>
+  <si>
+    <t>5.C.2  Open Burning of Waste</t>
+  </si>
+  <si>
+    <t>5.D  Wastewater Treatment and Discharge</t>
+  </si>
+  <si>
+    <t>5.D.1  Domestic Wastewater</t>
+  </si>
+  <si>
+    <t>5.D.2  Industrial Wastewater</t>
+  </si>
+  <si>
+    <t>5.D.3  Other</t>
+  </si>
+  <si>
+    <t>5.E  Other</t>
+  </si>
+  <si>
+    <t>other-waste</t>
+  </si>
+  <si>
+    <t>6.  Other</t>
+  </si>
+  <si>
+    <t>International Aviation</t>
+  </si>
+  <si>
+    <t>International Navigation</t>
+  </si>
+  <si>
+    <t>magnesium</t>
+  </si>
+  <si>
+    <t>3.B  Manure Management</t>
+  </si>
+  <si>
+    <t>manure_management</t>
+  </si>
+  <si>
+    <t>3.C  Rice Cultivation</t>
+  </si>
+  <si>
+    <t>rice_cultivation</t>
+  </si>
+  <si>
+    <t>3.A  Enteric Fermentation</t>
+  </si>
+  <si>
+    <t>enteric_fermentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1160,6 +1289,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1484,940 +1621,1060 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="3" width="27.1640625" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>159</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>160</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>161</v>
       </c>
-      <c r="D10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="C62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>183</v>
+      </c>
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>184</v>
+      </c>
+      <c r="B81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>191</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" t="s">
         <v>116</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" t="s">
         <v>117</v>
       </c>
-      <c r="D27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" t="s">
         <v>34</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C97" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" t="s">
+        <v>209</v>
+      </c>
+      <c r="D100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>236</v>
+      </c>
+      <c r="C106" t="s">
+        <v>237</v>
+      </c>
+      <c r="D106" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C107" t="s">
+        <v>239</v>
+      </c>
+      <c r="D107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" t="s">
+        <v>212</v>
+      </c>
+      <c r="D108" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>213</v>
+      </c>
+      <c r="D110" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>217</v>
+      </c>
+      <c r="C116" t="s">
+        <v>218</v>
+      </c>
+      <c r="D116" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>223</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D121" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>226</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128" t="s">
+        <v>231</v>
+      </c>
+      <c r="D128" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>232</v>
+      </c>
+      <c r="D130" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>233</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>38</v>
       </c>
-      <c r="C30" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="C39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" t="s">
-        <v>162</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="C47" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="C48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" t="s">
-        <v>194</v>
-      </c>
-      <c r="D60" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>85</v>
-      </c>
-      <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="B65" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>188</v>
-      </c>
-      <c r="B66" t="s">
-        <v>184</v>
-      </c>
-      <c r="C66" t="s">
-        <v>193</v>
-      </c>
-      <c r="D66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" t="s">
-        <v>192</v>
-      </c>
-      <c r="D67" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>190</v>
-      </c>
-      <c r="B68" t="s">
-        <v>186</v>
-      </c>
-      <c r="C68" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="13" customHeight="1">
-      <c r="A69" t="s">
-        <v>191</v>
-      </c>
-      <c r="B69" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>198</v>
-      </c>
-      <c r="B73" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D73" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="3:4">
-      <c r="D81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4">
-      <c r="D84" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4">
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="3:4">
-      <c r="C86" t="s">
-        <v>161</v>
-      </c>
-      <c r="D86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4">
-      <c r="C87" t="s">
-        <v>161</v>
-      </c>
-      <c r="D87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4">
-      <c r="C88" t="s">
-        <v>161</v>
-      </c>
-      <c r="D88" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4">
-      <c r="C89" t="s">
-        <v>161</v>
-      </c>
-      <c r="D89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4">
-      <c r="C90" t="s">
-        <v>161</v>
-      </c>
-      <c r="D90" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4">
-      <c r="C91" t="s">
-        <v>161</v>
-      </c>
-      <c r="D91" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4">
-      <c r="C92" t="s">
-        <v>161</v>
-      </c>
-      <c r="D92" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4">
-      <c r="C93" t="s">
-        <v>161</v>
-      </c>
-      <c r="D93" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4">
-      <c r="C94" t="s">
-        <v>161</v>
-      </c>
-      <c r="D94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4">
-      <c r="C95" t="s">
-        <v>161</v>
-      </c>
-      <c r="D95" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4">
-      <c r="C96" t="s">
-        <v>161</v>
-      </c>
-      <c r="D96" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4">
-      <c r="C97" t="s">
-        <v>161</v>
-      </c>
-      <c r="D97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4">
-      <c r="C98" t="s">
-        <v>161</v>
-      </c>
-      <c r="D98" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4">
-      <c r="D100" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4">
-      <c r="D101" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4">
-      <c r="D102" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4">
-      <c r="D103" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" spans="3:4">
-      <c r="D104" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="3:4">
-      <c r="D106" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4">
-      <c r="D107" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="3:4">
-      <c r="D108" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="109" spans="3:4">
-      <c r="D109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="3:4">
-      <c r="D111" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" spans="3:4">
-      <c r="D112" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="4:5">
-      <c r="D120" t="s">
-        <v>148</v>
-      </c>
-      <c r="E120" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="121" spans="4:5">
-      <c r="D121" t="s">
-        <v>156</v>
-      </c>
-      <c r="E121" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" spans="4:5">
-      <c r="D122" t="s">
-        <v>157</v>
-      </c>
-      <c r="E122" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="123" spans="4:5">
-      <c r="D123" t="s">
-        <v>158</v>
-      </c>
-      <c r="E123" t="s">
-        <v>164</v>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2431,52 +2688,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2490,82 +2747,85 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2">
         <v>2006</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2">
         <v>2010</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
+++ b/input/mappings/scaling/UNFCCC_scaling_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcduffie/Documents/GEOS-Chem/CEDS_Emissions/CEDS_v0611/input/mappings/scaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B3B597-C402-7E40-A326-910F9990463A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C303EA04-8285-F04C-97F4-24D20619F796}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="8800" windowWidth="25600" windowHeight="13940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="7660" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="243">
   <si>
     <t>description</t>
   </si>
@@ -753,6 +753,9 @@
   </si>
   <si>
     <t>enteric_fermentation</t>
+  </si>
+  <si>
+    <t>1.  Energy</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1048,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="235">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1622,23 +1627,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="3" width="27.1640625" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
@@ -1652,144 +1657,141 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>48</v>
       </c>
       <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1797,7 +1799,7 @@
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1805,7 +1807,7 @@
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1813,7 +1815,7 @@
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1821,7 +1823,7 @@
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1829,7 +1831,7 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1837,7 +1839,7 @@
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1845,7 +1847,7 @@
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1853,7 +1855,7 @@
         <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1861,7 +1863,7 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1869,7 +1871,7 @@
         <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1877,7 +1879,7 @@
         <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1885,795 +1887,803 @@
         <v>100</v>
       </c>
       <c r="D29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>58</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>59</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>108</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
       </c>
       <c r="C40" t="s">
         <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>150</v>
+      <c r="A41" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
         <v>102</v>
       </c>
       <c r="D41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>19</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>102</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>158</v>
-      </c>
-      <c r="B50" t="s">
-        <v>22</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>159</v>
+      <c r="A51" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>23</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>66</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D59" s="1"/>
-    </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>28</v>
-      </c>
-      <c r="C62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>167</v>
       </c>
       <c r="C63" t="s">
         <v>101</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D68" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>70</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>32</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C89" t="s">
-        <v>116</v>
-      </c>
-      <c r="D89" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>194</v>
       </c>
       <c r="C90" t="s">
         <v>116</v>
       </c>
+      <c r="D90" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>118</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C97" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>197</v>
       </c>
       <c r="B98" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="C98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>208</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>209</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>241</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>237</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>239</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>212</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D109" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D111" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>218</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D117" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D122" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>231</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D129" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D131" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D131" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D138" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2748,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2828,6 +2838,29 @@
         <v>45</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>2010</v>
+      </c>
+      <c r="G4">
+        <v>2016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
